--- a/SchedulingData/dynamic15/pso/scheduling1_17.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling1_17.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>75</v>
+        <v>55.78</v>
       </c>
       <c r="E2" t="n">
-        <v>26.64</v>
+        <v>26.592</v>
       </c>
     </row>
     <row r="3">
@@ -485,93 +485,93 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59.16</v>
+        <v>61.22</v>
       </c>
       <c r="E3" t="n">
-        <v>26.744</v>
+        <v>26.048</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>72.12</v>
+        <v>41.12</v>
       </c>
       <c r="E4" t="n">
-        <v>25.968</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>55.78</v>
       </c>
       <c r="D5" t="n">
-        <v>142.9</v>
+        <v>120.76</v>
       </c>
       <c r="E5" t="n">
-        <v>21.96</v>
+        <v>23.204</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>120.76</v>
       </c>
       <c r="D6" t="n">
-        <v>44.3</v>
+        <v>172.58</v>
       </c>
       <c r="E6" t="n">
-        <v>26.76</v>
+        <v>19.652</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>37.1</v>
+        <v>61.2</v>
       </c>
       <c r="E7" t="n">
-        <v>27.48</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="8">
@@ -580,74 +580,74 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="D8" t="n">
-        <v>74.44</v>
+        <v>104.76</v>
       </c>
       <c r="E8" t="n">
-        <v>26.696</v>
+        <v>22.344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>37.1</v>
+        <v>61.22</v>
       </c>
       <c r="D9" t="n">
-        <v>97.59999999999999</v>
+        <v>132.62</v>
       </c>
       <c r="E9" t="n">
-        <v>22.56</v>
+        <v>22.528</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>142.9</v>
+        <v>172.58</v>
       </c>
       <c r="D10" t="n">
-        <v>186.84</v>
+        <v>231.6</v>
       </c>
       <c r="E10" t="n">
-        <v>18.696</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>97.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>141.16</v>
+        <v>57.78</v>
       </c>
       <c r="E11" t="n">
-        <v>19.824</v>
+        <v>26.412</v>
       </c>
     </row>
     <row r="12">
@@ -656,74 +656,74 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>186.84</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>234.02</v>
+        <v>59.16</v>
       </c>
       <c r="E12" t="n">
-        <v>15.108</v>
+        <v>26.744</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>59.16</v>
+        <v>104.76</v>
       </c>
       <c r="D13" t="n">
-        <v>121.44</v>
+        <v>157.46</v>
       </c>
       <c r="E13" t="n">
-        <v>22.636</v>
+        <v>20.184</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>74.44</v>
+        <v>41.12</v>
       </c>
       <c r="D14" t="n">
-        <v>123.82</v>
+        <v>88.76000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>22.888</v>
+        <v>23.964</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>121.44</v>
+        <v>59.16</v>
       </c>
       <c r="D15" t="n">
-        <v>196.74</v>
+        <v>106.42</v>
       </c>
       <c r="E15" t="n">
-        <v>17.716</v>
+        <v>24.148</v>
       </c>
     </row>
     <row r="16">
@@ -732,36 +732,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>234.02</v>
+        <v>106.42</v>
       </c>
       <c r="D16" t="n">
-        <v>298.24</v>
+        <v>150.36</v>
       </c>
       <c r="E16" t="n">
-        <v>11.316</v>
+        <v>20.884</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>72.12</v>
+        <v>157.46</v>
       </c>
       <c r="D17" t="n">
-        <v>142</v>
+        <v>206.8</v>
       </c>
       <c r="E17" t="n">
-        <v>22.58</v>
+        <v>16.88</v>
       </c>
     </row>
     <row r="18">
@@ -770,131 +770,131 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>142</v>
+        <v>57.78</v>
       </c>
       <c r="D18" t="n">
-        <v>208</v>
+        <v>128.72</v>
       </c>
       <c r="E18" t="n">
-        <v>17.6</v>
+        <v>22.408</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>44.3</v>
+        <v>128.72</v>
       </c>
       <c r="D19" t="n">
-        <v>106.88</v>
+        <v>167.38</v>
       </c>
       <c r="E19" t="n">
-        <v>23.112</v>
+        <v>19.672</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>141.16</v>
+        <v>206.8</v>
       </c>
       <c r="D20" t="n">
-        <v>199.22</v>
+        <v>272.8</v>
       </c>
       <c r="E20" t="n">
-        <v>16.128</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>208</v>
+        <v>231.6</v>
       </c>
       <c r="D21" t="n">
-        <v>269.98</v>
+        <v>286.5</v>
       </c>
       <c r="E21" t="n">
-        <v>14.012</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>106.88</v>
+        <v>150.36</v>
       </c>
       <c r="D22" t="n">
-        <v>159.48</v>
+        <v>219.46</v>
       </c>
       <c r="E22" t="n">
-        <v>19.472</v>
+        <v>16.084</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>199.22</v>
+        <v>88.76000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>270.82</v>
+        <v>176.66</v>
       </c>
       <c r="E23" t="n">
-        <v>11.568</v>
+        <v>19.284</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>123.82</v>
+        <v>167.38</v>
       </c>
       <c r="D24" t="n">
-        <v>174.1</v>
+        <v>214.78</v>
       </c>
       <c r="E24" t="n">
-        <v>19.48</v>
+        <v>16.552</v>
       </c>
     </row>
     <row r="25">
@@ -903,169 +903,169 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>159.48</v>
+        <v>176.66</v>
       </c>
       <c r="D25" t="n">
-        <v>208.76</v>
+        <v>228.28</v>
       </c>
       <c r="E25" t="n">
-        <v>16.664</v>
+        <v>15.252</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>269.98</v>
+        <v>132.62</v>
       </c>
       <c r="D26" t="n">
-        <v>327.88</v>
+        <v>187.18</v>
       </c>
       <c r="E26" t="n">
-        <v>10.352</v>
+        <v>19.672</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>196.74</v>
+        <v>286.5</v>
       </c>
       <c r="D27" t="n">
-        <v>247.8</v>
+        <v>344.42</v>
       </c>
       <c r="E27" t="n">
-        <v>13.74</v>
+        <v>9.288</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>247.8</v>
+        <v>214.78</v>
       </c>
       <c r="D28" t="n">
-        <v>306.56</v>
+        <v>275.26</v>
       </c>
       <c r="E28" t="n">
-        <v>10.484</v>
+        <v>13.604</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>306.56</v>
+        <v>228.28</v>
       </c>
       <c r="D29" t="n">
-        <v>365.32</v>
+        <v>289.24</v>
       </c>
       <c r="E29" t="n">
-        <v>7.208</v>
+        <v>11.276</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>208.76</v>
+        <v>344.42</v>
       </c>
       <c r="D30" t="n">
-        <v>297.46</v>
+        <v>403.7</v>
       </c>
       <c r="E30" t="n">
-        <v>11.864</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>365.32</v>
+        <v>275.26</v>
       </c>
       <c r="D31" t="n">
-        <v>457.02</v>
+        <v>343.42</v>
       </c>
       <c r="E31" t="n">
-        <v>4.128</v>
+        <v>9.907999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>297.46</v>
+        <v>272.8</v>
       </c>
       <c r="D32" t="n">
-        <v>362.98</v>
+        <v>336.56</v>
       </c>
       <c r="E32" t="n">
-        <v>7.912</v>
+        <v>8.644</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>298.24</v>
+        <v>289.24</v>
       </c>
       <c r="D33" t="n">
-        <v>346.46</v>
+        <v>346.52</v>
       </c>
       <c r="E33" t="n">
-        <v>8.124000000000001</v>
+        <v>7.168</v>
       </c>
     </row>
     <row r="34">
@@ -1074,17 +1074,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>346.46</v>
+        <v>219.46</v>
       </c>
       <c r="D34" t="n">
-        <v>412.6</v>
+        <v>271.54</v>
       </c>
       <c r="E34" t="n">
-        <v>4.12</v>
+        <v>12.496</v>
       </c>
     </row>
     <row r="35">
@@ -1093,22 +1093,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>174.1</v>
+        <v>336.56</v>
       </c>
       <c r="D35" t="n">
-        <v>221.1</v>
+        <v>419.16</v>
       </c>
       <c r="E35" t="n">
-        <v>17.4</v>
+        <v>4.984</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1116,70 +1116,70 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>327.88</v>
+        <v>271.54</v>
       </c>
       <c r="D36" t="n">
-        <v>398.8</v>
+        <v>312.76</v>
       </c>
       <c r="E36" t="n">
-        <v>7.36</v>
+        <v>9.504</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>221.1</v>
+        <v>187.18</v>
       </c>
       <c r="D37" t="n">
-        <v>273.64</v>
+        <v>230.96</v>
       </c>
       <c r="E37" t="n">
-        <v>14.276</v>
+        <v>16.424</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>270.82</v>
+        <v>346.52</v>
       </c>
       <c r="D38" t="n">
-        <v>314.6</v>
+        <v>391.32</v>
       </c>
       <c r="E38" t="n">
-        <v>8.32</v>
+        <v>4.308</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>398.8</v>
+        <v>391.32</v>
       </c>
       <c r="D39" t="n">
-        <v>470.8</v>
+        <v>440.28</v>
       </c>
       <c r="E39" t="n">
-        <v>4.24</v>
+        <v>1.032</v>
       </c>
     </row>
     <row r="40">
@@ -1188,74 +1188,74 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>362.98</v>
+        <v>440.28</v>
       </c>
       <c r="D40" t="n">
-        <v>401.32</v>
+        <v>525.02</v>
       </c>
       <c r="E40" t="n">
-        <v>5.208</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>401.32</v>
+        <v>343.42</v>
       </c>
       <c r="D41" t="n">
-        <v>471.22</v>
+        <v>390.42</v>
       </c>
       <c r="E41" t="n">
-        <v>1.828</v>
+        <v>6.828</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>471.22</v>
+        <v>312.76</v>
       </c>
       <c r="D42" t="n">
-        <v>568.86</v>
+        <v>383.98</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>5.472</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>470.8</v>
+        <v>383.98</v>
       </c>
       <c r="D43" t="n">
-        <v>506.32</v>
+        <v>428.36</v>
       </c>
       <c r="E43" t="n">
-        <v>1.328</v>
+        <v>2.664</v>
       </c>
     </row>
     <row r="44">
@@ -1264,74 +1264,74 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>506.32</v>
+        <v>390.42</v>
       </c>
       <c r="D44" t="n">
-        <v>570.66</v>
+        <v>440.92</v>
       </c>
       <c r="E44" t="n">
-        <v>30</v>
+        <v>2.908</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>412.6</v>
+        <v>230.96</v>
       </c>
       <c r="D45" t="n">
-        <v>459.66</v>
+        <v>287.86</v>
       </c>
       <c r="E45" t="n">
-        <v>1.524</v>
+        <v>11.864</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>459.66</v>
+        <v>287.86</v>
       </c>
       <c r="D46" t="n">
-        <v>538.3099999999999</v>
+        <v>350.44</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>8.215999999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>314.6</v>
+        <v>440.92</v>
       </c>
       <c r="D47" t="n">
-        <v>388.06</v>
+        <v>541.5</v>
       </c>
       <c r="E47" t="n">
-        <v>5.584</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
@@ -1340,74 +1340,74 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>570.66</v>
+        <v>541.5</v>
       </c>
       <c r="D48" t="n">
-        <v>611.26</v>
+        <v>587.3</v>
       </c>
       <c r="E48" t="n">
-        <v>27.14</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>273.64</v>
+        <v>403.7</v>
       </c>
       <c r="D49" t="n">
-        <v>355.26</v>
+        <v>466.2</v>
       </c>
       <c r="E49" t="n">
-        <v>10.244</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>538.3099999999999</v>
+        <v>466.2</v>
       </c>
       <c r="D50" t="n">
-        <v>588.77</v>
+        <v>539.3200000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>27.144</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>388.06</v>
+        <v>419.16</v>
       </c>
       <c r="D51" t="n">
-        <v>459.78</v>
+        <v>489.46</v>
       </c>
       <c r="E51" t="n">
-        <v>2.032</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="52">
@@ -1416,17 +1416,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>355.26</v>
+        <v>489.46</v>
       </c>
       <c r="D52" t="n">
-        <v>412.86</v>
+        <v>580.83</v>
       </c>
       <c r="E52" t="n">
-        <v>8.084</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
@@ -1435,41 +1435,41 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>588.77</v>
+        <v>428.36</v>
       </c>
       <c r="D53" t="n">
-        <v>633.87</v>
+        <v>474.86</v>
       </c>
       <c r="E53" t="n">
-        <v>23.764</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>412.86</v>
+        <v>474.86</v>
       </c>
       <c r="D54" t="n">
-        <v>458.54</v>
+        <v>546.47</v>
       </c>
       <c r="E54" t="n">
-        <v>5.136</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>568.86</v>
+        <v>539.3200000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>644.48</v>
+        <v>609.9400000000001</v>
       </c>
       <c r="E55" t="n">
         <v>27.088</v>
@@ -1488,116 +1488,116 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>459.78</v>
+        <v>350.44</v>
       </c>
       <c r="D56" t="n">
-        <v>562.02</v>
+        <v>398.88</v>
       </c>
       <c r="E56" t="n">
-        <v>30</v>
+        <v>5.512</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>562.02</v>
+        <v>546.47</v>
       </c>
       <c r="D57" t="n">
-        <v>628.72</v>
+        <v>584.67</v>
       </c>
       <c r="E57" t="n">
-        <v>26.48</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>628.72</v>
+        <v>398.88</v>
       </c>
       <c r="D58" t="n">
-        <v>675.08</v>
+        <v>453.68</v>
       </c>
       <c r="E58" t="n">
-        <v>23.464</v>
+        <v>2.152</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>457.02</v>
+        <v>525.02</v>
       </c>
       <c r="D59" t="n">
-        <v>507.52</v>
+        <v>569.3200000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.208</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>507.52</v>
+        <v>580.83</v>
       </c>
       <c r="D60" t="n">
-        <v>613.5</v>
+        <v>637.6900000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>30</v>
+        <v>26.984</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>611.26</v>
+        <v>637.6900000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>663.5599999999999</v>
+        <v>674.6900000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>24.02</v>
+        <v>24.904</v>
       </c>
     </row>
   </sheetData>
